--- a/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="442">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -2046,125 +2046,125 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C137" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="L163" sqref="L163"/>
+    <sheetView tabSelected="1" topLeftCell="I139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="L154" sqref="L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3329,11 +3329,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3387,24 +3387,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6281,12 +6281,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="133"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="126"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6324,17 +6324,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="131" t="s">
+      <c r="A66" s="124" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="133"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="126"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6408,11 +6408,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="41" t="str">
         <f t="shared" ref="J68:J79" ca="1" si="0">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K68" s="41" t="str">
         <f t="shared" ref="K68:K79" ca="1" si="1">TEXT(TODAY()-1,"MM-DD-YYYY")</f>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6450,11 +6450,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K69" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6492,11 +6492,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K70" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6534,11 +6534,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6576,11 +6576,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6618,11 +6618,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6660,11 +6660,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6702,11 +6702,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6744,11 +6744,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K76" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -6786,11 +6786,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K77" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -6828,11 +6828,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K78" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -6870,11 +6870,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-03-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K79" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-01-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -6888,27 +6888,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="134" t="s">
+      <c r="A81" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="134"/>
-      <c r="C81" s="134"/>
-      <c r="D81" s="134"/>
-      <c r="E81" s="134"/>
-      <c r="F81" s="134"/>
-      <c r="G81" s="134"/>
-      <c r="H81" s="134"/>
-      <c r="I81" s="134"/>
-      <c r="J81" s="134"/>
-      <c r="K81" s="134"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="115"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="115"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="135" t="s">
+      <c r="A83" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7037,33 +7037,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="105" t="s">
+      <c r="T88" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="106"/>
-      <c r="V88" s="107"/>
-      <c r="W88" s="105" t="s">
+      <c r="U88" s="133"/>
+      <c r="V88" s="134"/>
+      <c r="W88" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="107"/>
+      <c r="X88" s="134"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="102" t="s">
+      <c r="Z88" s="129" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="103"/>
-      <c r="AB88" s="103"/>
-      <c r="AC88" s="103"/>
-      <c r="AD88" s="103"/>
-      <c r="AE88" s="103"/>
-      <c r="AF88" s="104"/>
-      <c r="AG88" s="102" t="s">
+      <c r="AA88" s="130"/>
+      <c r="AB88" s="130"/>
+      <c r="AC88" s="130"/>
+      <c r="AD88" s="130"/>
+      <c r="AE88" s="130"/>
+      <c r="AF88" s="131"/>
+      <c r="AG88" s="129" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="103"/>
-      <c r="AI88" s="103"/>
-      <c r="AJ88" s="103"/>
-      <c r="AK88" s="103"/>
-      <c r="AL88" s="104"/>
+      <c r="AH88" s="130"/>
+      <c r="AI88" s="130"/>
+      <c r="AJ88" s="130"/>
+      <c r="AK88" s="130"/>
+      <c r="AL88" s="131"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7249,11 +7249,11 @@
       </c>
       <c r="G90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="H90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="55">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C94" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-16</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="C95" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-16</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7606,63 +7606,63 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="114" t="s">
+      <c r="A97" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="115"/>
-      <c r="C97" s="115"/>
-      <c r="D97" s="115"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="115"/>
-      <c r="G97" s="115"/>
-      <c r="H97" s="115"/>
-      <c r="I97" s="115"/>
-      <c r="J97" s="115"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="111"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="111"/>
+      <c r="I97" s="111"/>
+      <c r="J97" s="111"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="62"/>
       <c r="B98" s="63"/>
-      <c r="C98" s="116" t="s">
+      <c r="C98" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="116"/>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="116"/>
-      <c r="H98" s="116"/>
-      <c r="I98" s="116"/>
-      <c r="J98" s="116"/>
-      <c r="K98" s="116"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="127"/>
+      <c r="F98" s="127"/>
+      <c r="G98" s="127"/>
+      <c r="H98" s="127"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="127"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="98" t="s">
+      <c r="C99" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="100" t="s">
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="120"/>
-      <c r="I99" s="120"/>
-      <c r="J99" s="101"/>
-      <c r="K99" s="110" t="s">
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="109"/>
+      <c r="K99" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="L99" s="110" t="s">
+      <c r="L99" s="113" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="111"/>
-      <c r="B100" s="111"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="114"/>
       <c r="C100" s="64" t="s">
         <v>339</v>
       </c>
@@ -7687,8 +7687,8 @@
       <c r="J100" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="111"/>
-      <c r="L100" s="111"/>
+      <c r="K100" s="114"/>
+      <c r="L100" s="114"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
@@ -7738,76 +7738,76 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="114" t="s">
+      <c r="A103" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="115"/>
-      <c r="C103" s="115"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
-      <c r="F103" s="115"/>
-      <c r="G103" s="115"/>
-      <c r="H103" s="115"/>
-      <c r="I103" s="115"/>
-      <c r="J103" s="115"/>
-      <c r="K103" s="115"/>
-      <c r="L103" s="115"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="111"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="122" t="s">
+      <c r="A104" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="122" t="s">
+      <c r="B104" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="117" t="s">
+      <c r="C104" s="128" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="125" t="s">
+      <c r="D104" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="96" t="s">
+      <c r="E104" s="135" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="96"/>
-      <c r="G104" s="96"/>
-      <c r="H104" s="96"/>
-      <c r="I104" s="97" t="s">
+      <c r="F104" s="135"/>
+      <c r="G104" s="135"/>
+      <c r="H104" s="135"/>
+      <c r="I104" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="J104" s="97"/>
-      <c r="K104" s="97"/>
-      <c r="L104" s="97"/>
+      <c r="J104" s="120"/>
+      <c r="K104" s="120"/>
+      <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="123"/>
-      <c r="B105" s="123"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="126"/>
-      <c r="E105" s="98" t="s">
+      <c r="A105" s="100"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="F105" s="99"/>
-      <c r="G105" s="100" t="s">
+      <c r="F105" s="106"/>
+      <c r="G105" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="101"/>
-      <c r="I105" s="98" t="s">
+      <c r="H105" s="109"/>
+      <c r="I105" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="J105" s="99"/>
-      <c r="K105" s="100" t="s">
+      <c r="J105" s="106"/>
+      <c r="K105" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="L105" s="101"/>
+      <c r="L105" s="109"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="124"/>
-      <c r="B106" s="124" t="s">
+      <c r="A106" s="101"/>
+      <c r="B106" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="119"/>
-      <c r="D106" s="127"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="119"/>
       <c r="E106" s="64" t="s">
         <v>351</v>
       </c>
@@ -7882,61 +7882,61 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="114" t="s">
+      <c r="A109" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="115"/>
-      <c r="C109" s="115"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="115"/>
-      <c r="F109" s="115"/>
-      <c r="G109" s="115"/>
-      <c r="H109" s="115"/>
-      <c r="I109" s="115"/>
-      <c r="J109" s="115"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="111"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="111"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="111"/>
+      <c r="I109" s="111"/>
+      <c r="J109" s="111"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="62"/>
       <c r="B110" s="63"/>
-      <c r="C110" s="116" t="s">
+      <c r="C110" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="116"/>
-      <c r="E110" s="116"/>
-      <c r="F110" s="116"/>
-      <c r="G110" s="116"/>
-      <c r="H110" s="116"/>
-      <c r="I110" s="116"/>
-      <c r="J110" s="116"/>
-      <c r="K110" s="116"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="127"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="127"/>
       <c r="Z110" s="69"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="110" t="s">
+      <c r="A111" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="110" t="s">
+      <c r="B111" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="98" t="s">
+      <c r="C111" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="100" t="s">
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="H111" s="120"/>
-      <c r="I111" s="120"/>
-      <c r="J111" s="101"/>
-      <c r="K111" s="112" t="s">
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="109"/>
+      <c r="K111" s="96" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="111"/>
-      <c r="B112" s="111"/>
+      <c r="A112" s="114"/>
+      <c r="B112" s="114"/>
       <c r="C112" s="64" t="s">
         <v>339</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="J112" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="113"/>
+      <c r="K112" s="97"/>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
@@ -8072,7 +8072,7 @@
       <c r="I117" s="72"/>
       <c r="J117" s="73">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="K117" s="73">
         <v>234</v>
@@ -8082,26 +8082,26 @@
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A119" s="108" t="s">
+      <c r="A119" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="B119" s="109"/>
-      <c r="C119" s="109"/>
-      <c r="D119" s="109"/>
-      <c r="E119" s="109"/>
-      <c r="F119" s="109"/>
-      <c r="G119" s="109"/>
-      <c r="H119" s="109"/>
-      <c r="I119" s="109"/>
-      <c r="J119" s="109"/>
-      <c r="K119" s="109"/>
-      <c r="L119" s="109"/>
-      <c r="M119" s="109"/>
-      <c r="N119" s="109"/>
-      <c r="O119" s="109"/>
-      <c r="P119" s="109"/>
-      <c r="Q119" s="109"/>
-      <c r="R119" s="109"/>
+      <c r="B119" s="99"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="99"/>
+      <c r="E119" s="99"/>
+      <c r="F119" s="99"/>
+      <c r="G119" s="99"/>
+      <c r="H119" s="99"/>
+      <c r="I119" s="99"/>
+      <c r="J119" s="99"/>
+      <c r="K119" s="99"/>
+      <c r="L119" s="99"/>
+      <c r="M119" s="99"/>
+      <c r="N119" s="99"/>
+      <c r="O119" s="99"/>
+      <c r="P119" s="99"/>
+      <c r="Q119" s="99"/>
+      <c r="R119" s="99"/>
       <c r="S119" s="79"/>
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="D121" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E121" s="78"/>
       <c r="F121" s="78" t="s">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D122" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E122" s="76"/>
       <c r="F122" s="76" t="s">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D123" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E123" s="81"/>
       <c r="F123" s="81" t="s">
@@ -8392,26 +8392,26 @@
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="109"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="109"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="109"/>
-      <c r="L125" s="109"/>
-      <c r="M125" s="109"/>
-      <c r="N125" s="109"/>
-      <c r="O125" s="109"/>
-      <c r="P125" s="109"/>
-      <c r="Q125" s="109"/>
-      <c r="R125" s="109"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="99"/>
+      <c r="F125" s="99"/>
+      <c r="G125" s="99"/>
+      <c r="H125" s="99"/>
+      <c r="I125" s="99"/>
+      <c r="J125" s="99"/>
+      <c r="K125" s="99"/>
+      <c r="L125" s="99"/>
+      <c r="M125" s="99"/>
+      <c r="N125" s="99"/>
+      <c r="O125" s="99"/>
+      <c r="P125" s="99"/>
+      <c r="Q125" s="99"/>
+      <c r="R125" s="99"/>
       <c r="S125" s="80"/>
       <c r="T125" s="80"/>
       <c r="U125" s="80"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="D127" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E127" s="78"/>
       <c r="F127" s="78" t="s">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D128" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E128" s="76"/>
       <c r="F128" s="76" t="s">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D129" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E129" s="81"/>
       <c r="F129" s="81" t="s">
@@ -8702,26 +8702,26 @@
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
-      <c r="G131" s="109"/>
-      <c r="H131" s="109"/>
-      <c r="I131" s="109"/>
-      <c r="J131" s="109"/>
-      <c r="K131" s="109"/>
-      <c r="L131" s="109"/>
-      <c r="M131" s="109"/>
-      <c r="N131" s="109"/>
-      <c r="O131" s="109"/>
-      <c r="P131" s="109"/>
-      <c r="Q131" s="109"/>
-      <c r="R131" s="109"/>
+      <c r="B131" s="99"/>
+      <c r="C131" s="99"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="99"/>
+      <c r="J131" s="99"/>
+      <c r="K131" s="99"/>
+      <c r="L131" s="99"/>
+      <c r="M131" s="99"/>
+      <c r="N131" s="99"/>
+      <c r="O131" s="99"/>
+      <c r="P131" s="99"/>
+      <c r="Q131" s="99"/>
+      <c r="R131" s="99"/>
       <c r="S131" s="83"/>
       <c r="T131" s="83"/>
       <c r="U131" s="83"/>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D133" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E133" s="78"/>
       <c r="F133" s="78" t="str">
@@ -8946,7 +8946,7 @@
       <c r="I137" s="72"/>
       <c r="J137" s="73">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="K137" s="73">
         <v>234</v>
@@ -9022,7 +9022,7 @@
       <c r="I141" s="72"/>
       <c r="J141" s="73">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="K141" s="73">
         <v>234</v>
@@ -9032,76 +9032,76 @@
       </c>
     </row>
     <row r="143" spans="1:48" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="114" t="s">
+      <c r="A143" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="B143" s="115"/>
-      <c r="C143" s="115"/>
-      <c r="D143" s="115"/>
-      <c r="E143" s="115"/>
-      <c r="F143" s="115"/>
-      <c r="G143" s="115"/>
-      <c r="H143" s="115"/>
-      <c r="I143" s="115"/>
-      <c r="J143" s="115"/>
-      <c r="K143" s="115"/>
-      <c r="L143" s="115"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="111"/>
+      <c r="D143" s="111"/>
+      <c r="E143" s="111"/>
+      <c r="F143" s="111"/>
+      <c r="G143" s="111"/>
+      <c r="H143" s="111"/>
+      <c r="I143" s="111"/>
+      <c r="J143" s="111"/>
+      <c r="K143" s="111"/>
+      <c r="L143" s="111"/>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A144" s="122" t="s">
+      <c r="A144" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="B144" s="122" t="s">
+      <c r="B144" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="C144" s="117" t="s">
+      <c r="C144" s="128" t="s">
         <v>347</v>
       </c>
-      <c r="D144" s="125" t="s">
+      <c r="D144" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="E144" s="96" t="s">
+      <c r="E144" s="135" t="s">
         <v>332</v>
       </c>
-      <c r="F144" s="96"/>
-      <c r="G144" s="96"/>
-      <c r="H144" s="96"/>
-      <c r="I144" s="97" t="s">
+      <c r="F144" s="135"/>
+      <c r="G144" s="135"/>
+      <c r="H144" s="135"/>
+      <c r="I144" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="J144" s="97"/>
-      <c r="K144" s="97"/>
-      <c r="L144" s="97"/>
+      <c r="J144" s="120"/>
+      <c r="K144" s="120"/>
+      <c r="L144" s="120"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A145" s="123"/>
-      <c r="B145" s="123"/>
-      <c r="C145" s="118"/>
-      <c r="D145" s="126"/>
-      <c r="E145" s="98" t="s">
+      <c r="A145" s="100"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="102"/>
+      <c r="D145" s="118"/>
+      <c r="E145" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="F145" s="99"/>
-      <c r="G145" s="100" t="s">
+      <c r="F145" s="106"/>
+      <c r="G145" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="H145" s="101"/>
-      <c r="I145" s="98" t="s">
+      <c r="H145" s="109"/>
+      <c r="I145" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="J145" s="99"/>
-      <c r="K145" s="100" t="s">
+      <c r="J145" s="106"/>
+      <c r="K145" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="L145" s="101"/>
+      <c r="L145" s="109"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A146" s="124"/>
-      <c r="B146" s="124" t="s">
+      <c r="A146" s="101"/>
+      <c r="B146" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="119"/>
-      <c r="D146" s="127"/>
+      <c r="C146" s="103"/>
+      <c r="D146" s="119"/>
       <c r="E146" s="64" t="s">
         <v>351</v>
       </c>
@@ -9176,61 +9176,61 @@
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="114" t="s">
+      <c r="A149" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="B149" s="115"/>
-      <c r="C149" s="115"/>
-      <c r="D149" s="115"/>
-      <c r="E149" s="115"/>
-      <c r="F149" s="115"/>
-      <c r="G149" s="115"/>
-      <c r="H149" s="115"/>
-      <c r="I149" s="115"/>
-      <c r="J149" s="115"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="111"/>
+      <c r="D149" s="111"/>
+      <c r="E149" s="111"/>
+      <c r="F149" s="111"/>
+      <c r="G149" s="111"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="111"/>
+      <c r="J149" s="111"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="84"/>
       <c r="B150" s="85"/>
-      <c r="C150" s="116" t="s">
+      <c r="C150" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="D150" s="116"/>
-      <c r="E150" s="116"/>
-      <c r="F150" s="116"/>
-      <c r="G150" s="116"/>
-      <c r="H150" s="116"/>
-      <c r="I150" s="116"/>
-      <c r="J150" s="116"/>
-      <c r="K150" s="116"/>
+      <c r="D150" s="127"/>
+      <c r="E150" s="127"/>
+      <c r="F150" s="127"/>
+      <c r="G150" s="127"/>
+      <c r="H150" s="127"/>
+      <c r="I150" s="127"/>
+      <c r="J150" s="127"/>
+      <c r="K150" s="127"/>
       <c r="Z150" s="69"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A151" s="110" t="s">
+      <c r="A151" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B151" s="110" t="s">
+      <c r="B151" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="98" t="s">
+      <c r="C151" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D151" s="121"/>
-      <c r="E151" s="121"/>
-      <c r="F151" s="99"/>
-      <c r="G151" s="100" t="s">
+      <c r="D151" s="105"/>
+      <c r="E151" s="105"/>
+      <c r="F151" s="106"/>
+      <c r="G151" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="H151" s="120"/>
-      <c r="I151" s="120"/>
-      <c r="J151" s="101"/>
-      <c r="K151" s="112" t="s">
-        <v>357</v>
+      <c r="H151" s="108"/>
+      <c r="I151" s="108"/>
+      <c r="J151" s="109"/>
+      <c r="K151" s="96" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="111"/>
-      <c r="B152" s="111"/>
+      <c r="A152" s="114"/>
+      <c r="B152" s="114"/>
       <c r="C152" s="64" t="s">
         <v>339</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="J152" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K152" s="113"/>
+      <c r="K152" s="97"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="55" t="s">
@@ -9297,20 +9297,20 @@
       <c r="K153" s="30"/>
     </row>
     <row r="155" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="98" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="99"/>
+      <c r="C155" s="99"/>
+      <c r="D155" s="99"/>
+      <c r="E155" s="99"/>
+      <c r="F155" s="99"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A156" s="123" t="s">
+      <c r="A156" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="B156" s="118" t="s">
+      <c r="B156" s="102" t="s">
         <v>334</v>
       </c>
       <c r="C156" s="88" t="s">
@@ -9338,45 +9338,42 @@
       <c r="U156" s="88"/>
     </row>
     <row r="157" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="123"/>
-      <c r="B157" s="118"/>
-      <c r="C157" s="98" t="s">
+      <c r="A157" s="100"/>
+      <c r="B157" s="102"/>
+      <c r="C157" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D157" s="121"/>
-      <c r="E157" s="121"/>
-      <c r="F157" s="99"/>
-      <c r="G157" s="100" t="s">
+      <c r="D157" s="105"/>
+      <c r="E157" s="105"/>
+      <c r="F157" s="106"/>
+      <c r="G157" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="H157" s="120"/>
-      <c r="I157" s="120"/>
-      <c r="J157" s="101"/>
-      <c r="K157" s="112" t="s">
+      <c r="H157" s="108"/>
+      <c r="I157" s="108"/>
+      <c r="J157" s="109"/>
+      <c r="K157" s="96" t="s">
+        <v>348</v>
+      </c>
+      <c r="L157" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="M157" s="90"/>
+      <c r="N157" s="90"/>
+      <c r="O157" s="91"/>
+      <c r="P157" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q157" s="93"/>
+      <c r="R157" s="93"/>
+      <c r="S157" s="94"/>
+      <c r="T157" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="L157" s="112" t="s">
-        <v>348</v>
-      </c>
-      <c r="M157" s="89" t="s">
-        <v>335</v>
-      </c>
-      <c r="N157" s="90"/>
-      <c r="O157" s="90"/>
-      <c r="P157" s="91"/>
-      <c r="Q157" s="92" t="s">
-        <v>336</v>
-      </c>
-      <c r="R157" s="93"/>
-      <c r="S157" s="93"/>
-      <c r="T157" s="94"/>
-      <c r="U157" s="87" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A158" s="124"/>
-      <c r="B158" s="119"/>
+      <c r="A158" s="101"/>
+      <c r="B158" s="103"/>
       <c r="C158" s="64" t="s">
         <v>339</v>
       </c>
@@ -9401,33 +9398,32 @@
       <c r="J158" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K158" s="113"/>
-      <c r="L158" s="113"/>
+      <c r="K158" s="97"/>
+      <c r="L158" s="64" t="s">
+        <v>339</v>
+      </c>
       <c r="M158" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="N158" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="O158" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="P158" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="N158" s="64" t="s">
+      <c r="Q158" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="O158" s="64" t="s">
+      <c r="R158" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="P158" s="64" t="s">
+      <c r="S158" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="Q158" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="R158" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="S158" s="65" t="s">
-        <v>341</v>
-      </c>
-      <c r="T158" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="U158" s="95"/>
+      <c r="T158" s="95"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="70" t="s">
@@ -9455,13 +9451,10 @@
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
       <c r="K159" s="30" t="str">
-        <f>TEXT(0.1,"0.00")</f>
-        <v>0.10</v>
-      </c>
-      <c r="L159" s="30" t="str">
         <f>TEXT(0.94,"0.00")</f>
         <v>0.94</v>
       </c>
+      <c r="L159" s="30"/>
       <c r="M159" s="30"/>
       <c r="N159" s="30"/>
       <c r="O159" s="30"/>
@@ -9470,7 +9463,6 @@
       <c r="R159" s="30"/>
       <c r="S159" s="30"/>
       <c r="T159" s="30"/>
-      <c r="U159" s="30"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" s="70" t="s">
@@ -9510,46 +9502,42 @@
         <v>85.53</v>
       </c>
       <c r="K160" s="30" t="str">
-        <f>TEXT(1.05,"0.00")</f>
-        <v>1.05</v>
-      </c>
-      <c r="L160" s="30" t="str">
         <f>TEXT(0.94,"0.00")</f>
         <v>0.94</v>
       </c>
-      <c r="M160" s="30" t="str">
+      <c r="L160" s="30" t="str">
         <f>"$"&amp;TEXT(294833.94,"0.00")</f>
         <v>$294833.94</v>
       </c>
-      <c r="N160" s="30" t="str">
+      <c r="M160" s="30" t="str">
         <f>"$"&amp;TEXT(45597,"0.00")</f>
         <v>$45597.00</v>
       </c>
-      <c r="O160" s="30" t="str">
+      <c r="N160" s="30" t="str">
         <f>"$"&amp;TEXT(254039.94,"0.00")</f>
         <v>$254039.94</v>
       </c>
-      <c r="P160" s="30" t="str">
+      <c r="O160" s="30" t="str">
         <f>TEXT(86.16,"0.00")</f>
         <v>86.16</v>
       </c>
-      <c r="Q160" s="30" t="str">
+      <c r="P160" s="30" t="str">
         <f>"$"&amp;TEXT(314372.75,"0.00")</f>
         <v>$314372.75</v>
       </c>
-      <c r="R160" s="30" t="str">
+      <c r="Q160" s="30" t="str">
         <f>"$"&amp;TEXT(45480,"0.00")</f>
         <v>$45480.00</v>
       </c>
-      <c r="S160" s="30" t="str">
+      <c r="R160" s="30" t="str">
         <f>"$"&amp;TEXT(268892.75,"0.00")</f>
         <v>$268892.75</v>
       </c>
-      <c r="T160" s="30" t="str">
+      <c r="S160" s="30" t="str">
         <f>TEXT(85.53,"0.00")</f>
         <v>85.53</v>
       </c>
-      <c r="U160" s="30"/>
+      <c r="T160" s="30"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="44" t="s">
@@ -9592,34 +9580,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C157:F157"/>
-    <mergeCell ref="G157:J157"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="K99:K100"/>
+  <mergeCells count="63">
+    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="AG88:AL88"/>
+    <mergeCell ref="T88:V88"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="Z88:AF88"/>
+    <mergeCell ref="A125:R125"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A119:R119"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="A111:A112"/>
     <mergeCell ref="G111:J111"/>
     <mergeCell ref="B151:B152"/>
     <mergeCell ref="C151:F151"/>
@@ -9636,27 +9618,32 @@
     <mergeCell ref="C111:F111"/>
     <mergeCell ref="A149:J149"/>
     <mergeCell ref="A151:A152"/>
-    <mergeCell ref="AG88:AL88"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="Z88:AF88"/>
-    <mergeCell ref="A125:R125"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="A119:R119"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="E144:H144"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C157:F157"/>
+    <mergeCell ref="G157:J157"/>
+    <mergeCell ref="K157:K158"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 OCX133 NTB133 NJF133 MZJ133 MPN133 MFR133 LVV133 LLZ133 KSH133 KIL133 JYP133 JOT133 JEX133 IVB133 ILF133 IBJ133 HRN133 HHR133 GXV133 GNZ133 GED133 FUH133 FKL133 LCD133 FAP133 EQT133 EGX133 DXB133 DNF133 DDJ133 CTN133 CJR133 BZV133 BPZ133 BGD133 AWH133 AML133 ACP133 ST133 IX133 WVJ133 WLN133 WBR133 VRV133 VHZ133 UYD133 UOH133 UEL133 TUP133 TKT133 TAX133 SRB133 SHF133 RXJ133 RNN133 RDR133 QTV133 QJZ133 QAD133 PQH133 PGL133 OWP133 OMT133 MPN121:MPN123 MZJ121:MZJ123 NJF121:NJF123 NTB121:NTB123 OCX121:OCX123 OMT121:OMT123 OWP121:OWP123 PGL121:PGL123 PQH121:PQH123 QAD121:QAD123 QJZ121:QJZ123 QTV121:QTV123 RDR121:RDR123 RNN121:RNN123 RXJ121:RXJ123 SHF121:SHF123 SRB121:SRB123 TAX121:TAX123 TKT121:TKT123 TUP121:TUP123 UEL121:UEL123 UOH121:UOH123 UYD121:UYD123 VHZ121:VHZ123 VRV121:VRV123 WBR121:WBR123 WLN121:WLN123 WVJ121:WVJ123 IX121:IX123 ST121:ST123 ACP121:ACP123 AML121:AML123 AWH121:AWH123 BGD121:BGD123 BPZ121:BPZ123 BZV121:BZV123 CJR121:CJR123 CTN121:CTN123 DDJ121:DDJ123 DNF121:DNF123 DXB121:DXB123 EGX121:EGX123 EQT121:EQT123 FAP121:FAP123 LCD121:LCD123 FKL121:FKL123 FUH121:FUH123 GED121:GED123 GNZ121:GNZ123 GXV121:GXV123 HHR121:HHR123 HRN121:HRN123 IBJ121:IBJ123 ILF121:ILF123 IVB121:IVB123 JEX121:JEX123 JOT121:JOT123 JYP121:JYP123 KIL121:KIL123 KSH121:KSH123 LLZ121:LLZ123 LVV121:LVV123 MFR121:MFR123 MZJ127:MZJ129 NJF127:NJF129 NTB127:NTB129 OCX127:OCX129 OMT127:OMT129 OWP127:OWP129 PGL127:PGL129 PQH127:PQH129 QAD127:QAD129 QJZ127:QJZ129 QTV127:QTV129 RDR127:RDR129 RNN127:RNN129 RXJ127:RXJ129 SHF127:SHF129 SRB127:SRB129 TAX127:TAX129 TKT127:TKT129 TUP127:TUP129 UEL127:UEL129 UOH127:UOH129 UYD127:UYD129 VHZ127:VHZ129 VRV127:VRV129 WBR127:WBR129 WLN127:WLN129 WVJ127:WVJ129 IX127:IX129 ST127:ST129 ACP127:ACP129 AML127:AML129 AWH127:AWH129 BGD127:BGD129 BPZ127:BPZ129 BZV127:BZV129 CJR127:CJR129 CTN127:CTN129 DDJ127:DDJ129 DNF127:DNF129 DXB127:DXB129 EGX127:EGX129 EQT127:EQT129 FAP127:FAP129 LCD127:LCD129 FKL127:FKL129 FUH127:FUH129 GED127:GED129 GNZ127:GNZ129 GXV127:GXV129 HHR127:HHR129 HRN127:HRN129 IBJ127:IBJ129 ILF127:ILF129 IVB127:IVB129 JEX127:JEX129 JOT127:JOT129 JYP127:JYP129 KIL127:KIL129 KSH127:KSH129 LLZ127:LLZ129 LVV127:LVV129 MFR127:MFR129 MPN127:MPN129">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="458">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1416,6 +1416,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0595872402","modelId":"6580783755","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1930014290","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1938600421","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1938600422","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1938600423","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0584674115","dealId":"1554749644","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1554749644","modelId":"0584674115","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6010014709","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0584674115","dealId":"1554749644","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6018601273","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6018601274","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6018601275","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"6010014709","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1554749644","modelId":"0584674115","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6010014710","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6018601273","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6018601274","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6018601275","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0584674115","dealId":"1554749644","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1554749644","modelId":"0584674115","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6010014711","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0584674115","dealId":"1554749644","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6018601279","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6018601280","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6018601281","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"6010014711","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1554749644","modelId":"0584674115","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6010014712","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6018601279","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6018601280","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6018601281","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9069061100","dealId":"9001161768","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9001161768","modelId":"9069061100","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0140014215","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9069061100","dealId":"9001161768","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0148600345","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0148600346","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0148600347","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0140014215","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9001161768","modelId":"9069061100","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0140014216","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600345","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600346","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600347","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9069061100","dealId":"9001161768","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9001161768","modelId":"9069061100","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0140014217","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9069061100","dealId":"9001161768","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0148600351","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0148600352","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0148600353","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"0140014217","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9001161768","modelId":"9069061100","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0140014218","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600351","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600352","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600353","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -2464,13 +2512,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -8319,10 +8367,10 @@
       </c>
       <c r="Z122" s="76"/>
       <c r="AU122" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="AV122" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8385,10 +8433,10 @@
       </c>
       <c r="Z123" s="81"/>
       <c r="AU123" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="AV123" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8629,10 +8677,10 @@
       </c>
       <c r="Z128" s="76"/>
       <c r="AU128" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AV128" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8695,10 +8743,10 @@
       </c>
       <c r="Z129" s="81"/>
       <c r="AU129" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AV129" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
@@ -9675,13 +9723,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="466">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1464,6 +1464,30 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9001161768","modelId":"9069061100","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0140014218","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600351","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600352","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0148600353","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0222951122","dealId":"9590527240","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9590527240","modelId":"0222951122","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3530014289","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0222951122","dealId":"9590527240","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3538600495","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3538600496","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3538600497","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3530014289","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9590527240","modelId":"0222951122","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3530014290","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600495","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600496","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600497","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0222951122","dealId":"9590527240","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9590527240","modelId":"0222951122","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3530014291","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0222951122","dealId":"9590527240","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3538600501","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3538600502","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3538600503","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"3530014291","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9590527240","modelId":"0222951122","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3530014292","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600501","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600502","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600503","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -8367,10 +8391,10 @@
       </c>
       <c r="Z122" s="76"/>
       <c r="AU122" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AV122" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8433,10 +8457,10 @@
       </c>
       <c r="Z123" s="81"/>
       <c r="AU123" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AV123" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8677,10 +8701,10 @@
       </c>
       <c r="Z128" s="76"/>
       <c r="AU128" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="AV128" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8743,10 +8767,10 @@
       </c>
       <c r="Z129" s="81"/>
       <c r="AU129" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AV129" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39773.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="482">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1488,6 +1488,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9590527240","modelId":"0222951122","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3530014292","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600501","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600502","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3538600503","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3174406082","dealId":"7595051255","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7595051255","modelId":"3174406082","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8860014485","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3174406082","dealId":"7595051255","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8868600922","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8868600923","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8868600924","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"8860014485","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7595051255","modelId":"3174406082","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8860014486","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8868600922","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8868600923","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8868600924","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3174406082","dealId":"7595051255","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7595051255","modelId":"3174406082","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8860014487","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3174406082","dealId":"7595051255","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8868600928","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8868600929","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8868600930","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"8860014487","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7595051255","modelId":"3174406082","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8860014488","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8868600928","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8868600929","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8868600930","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1534409480","dealId":"2142350566","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2142350566","modelId":"1534409480","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6750014783","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1534409480","dealId":"2142350566","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6758601463","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6758601464","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6758601465","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"6750014783","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2142350566","modelId":"1534409480","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6750014784","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6758601463","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6758601464","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6758601465","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1534409480","dealId":"2142350566","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2142350566","modelId":"1534409480","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6750014785","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1534409480","dealId":"2142350566","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6758601469","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6758601470","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6758601471","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"6750014785","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2142350566","modelId":"1534409480","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6750014786","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6758601469","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6758601470","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6758601471","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -8391,10 +8439,10 @@
       </c>
       <c r="Z122" s="76"/>
       <c r="AU122" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="AV122" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8457,10 +8505,10 @@
       </c>
       <c r="Z123" s="81"/>
       <c r="AU123" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AV123" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8701,10 +8749,10 @@
       </c>
       <c r="Z128" s="76"/>
       <c r="AU128" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AV128" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8767,10 +8815,10 @@
       </c>
       <c r="Z129" s="81"/>
       <c r="AU129" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AV129" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
